--- a/config_debug/fish_3d_am_server.xlsx
+++ b/config_debug/fish_3d_am_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>id|行号</t>
   </si>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>fish_am_data_config_5</t>
+  </si>
+  <si>
+    <t>name_type|名字类型 1=数字，2中文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1017,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1030,12 +1034,12 @@
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="72.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="1"/>
+    <col min="6" max="8" width="25.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1058,10 +1062,13 @@
         <v>47</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1083,11 +1090,14 @@
       <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1109,8 +1119,11 @@
       <c r="G3" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1132,8 +1145,11 @@
       <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1155,8 +1171,11 @@
       <c r="G5" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1178,8 +1197,11 @@
       <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1201,8 +1223,11 @@
       <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1224,8 +1249,11 @@
       <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1247,28 +1275,31 @@
       <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
@@ -1283,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_3d_am_server.xlsx
+++ b/config_debug/fish_3d_am_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_5.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1401,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
